--- a/WriteUp.xlsx
+++ b/WriteUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Labs</t>
   </si>
@@ -84,15 +84,19 @@
     <t>Sau 5 lần đăng nhập sai liên tiếp thì bị block ip =&gt; cứ thử 2 lần thì đăng nhập đúng 1 lần bằng tk armstrong/strongpow =&gt; pass là chealse</t>
   </si>
   <si>
-    <t>Bruteforce mật khẩu: username=peter&amp;password=matthew</t>
-  </si>
-  <si>
     <t>Do otp có 4 kí tự =&gt; bruteforce mật khẩu trước, sau đó bruteforce otp
 - Không bruteforce được mật khẩu =&gt; bó tay</t>
   </si>
   <si>
     <t>Đề bài cho peter luôn click vào link =&gt; khai thác qua link mà peter click. Do đó dự đoán lỗi password-reset-poisoning-via-middleware, thêm đoạn sau vào request
 X-Forwarded-Host: your-exploit-server-id.web-security-academy.net (host này dùng burpsuite sinh ra) =&gt; lấy được link peter click, thay token vào link bài lab</t>
+  </si>
+  <si>
+    <t>Flag{l0g1c_byp4ss2fa2_m0r3_h4rd}</t>
+  </si>
+  <si>
+    <t>Bruteforce mật khẩu: username=peter&amp;password=matthew
+- Đăng kí và login đến 1 user bất kì. Đến đoạn verifycode, trong request chỉ có sessionid nên thử khai thác sessionid. Mở tab mới login bằng user peter trên, sessionid để sessionid không đổi hay update user cho session, sau đó quay về tab verify code nhập code đã nhận qua email =&gt; login thành công.</t>
   </si>
 </sst>
 </file>
@@ -210,7 +214,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -234,15 +238,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>236220</xdr:rowOff>
+      <xdr:rowOff>998220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5417820</xdr:colOff>
+      <xdr:colOff>5440680</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1041298</xdr:rowOff>
+      <xdr:rowOff>1803298</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -259,7 +263,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5250180" y="1737360"/>
+          <a:off x="5273040" y="3048000"/>
           <a:ext cx="5394960" cy="805078"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -573,7 +577,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,7 +642,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -650,19 +654,21 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D6" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
